--- a/data/partisPolitiqueManor.xlsx
+++ b/data/partisPolitiqueManor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayeshsmith/Desktop/Cours BA/ABIDM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayeshsmith/Desktop/Cours BA/ABIDM/code jay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187A6803-E36B-B348-A92B-C94E7E33FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74527797-0E5A-5642-B931-ECAA9A2EABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="460" windowWidth="12680" windowHeight="17540" xr2:uid="{5D49F154-141A-2E4C-B24D-A960EB86D4A8}"/>
   </bookViews>
@@ -489,7 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E1EA63-A93E-A744-B8EA-F45D3B7AEB76}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -601,6 +603,9 @@
       <c r="F5">
         <v>11.1</v>
       </c>
+      <c r="G5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -851,6 +856,9 @@
       <c r="F16">
         <v>8.6999999999999993</v>
       </c>
+      <c r="G16">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -963,6 +971,9 @@
       <c r="F21">
         <v>5.4</v>
       </c>
+      <c r="G21">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1006,6 +1017,9 @@
       <c r="F23">
         <v>12</v>
       </c>
+      <c r="G23">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1094,6 +1108,9 @@
       </c>
       <c r="F27">
         <v>10.6</v>
+      </c>
+      <c r="G27">
+        <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/partisPolitiqueManor.xlsx
+++ b/data/partisPolitiqueManor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayeshsmith/Desktop/Cours BA/ABIDM/code jay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayeshsmith/Desktop/Cours_BA/ABIDM/lait_equitable_github/lait_equitable/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74527797-0E5A-5642-B931-ECAA9A2EABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B4B940-926C-DE41-A5CD-99916578BFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="460" windowWidth="12680" windowHeight="17540" xr2:uid="{5D49F154-141A-2E4C-B24D-A960EB86D4A8}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Baden</t>
   </si>
   <si>
-    <t>Vert'libéraux</t>
-  </si>
-  <si>
     <t>Bâle</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Vertliberaux</t>
   </si>
 </sst>
 </file>
@@ -490,14 +490,14 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -537,6 +537,9 @@
       <c r="F2">
         <v>8.9</v>
       </c>
+      <c r="G2">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -563,7 +566,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>6.2</v>
@@ -586,7 +589,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>20.2</v>
@@ -609,7 +612,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>8.1</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>27.5</v>
@@ -655,7 +658,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>13.9</v>
@@ -678,7 +681,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -701,7 +704,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>17.3</v>
@@ -724,7 +727,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>7.4</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>13.2</v>
@@ -770,7 +773,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>14.2</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>20.3</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>22.7</v>
@@ -862,7 +865,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>20.8</v>
@@ -885,7 +888,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -908,7 +911,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>5.5</v>
@@ -931,7 +934,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>14.3</v>
@@ -954,7 +957,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>24.9</v>
@@ -977,7 +980,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>10.9</v>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>15.5</v>
@@ -1023,7 +1026,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>13.6</v>
@@ -1046,7 +1049,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>32.299999999999997</v>
@@ -1069,7 +1072,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>16.5</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>23.8</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>19.5</v>
